--- a/Tutorial/EncountersDoubleTutorial.xlsx
+++ b/Tutorial/EncountersDoubleTutorial.xlsx
@@ -153,7 +153,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -185,7 +185,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>1</v>
@@ -199,10 +199,10 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="n">
         <v>2</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -213,10 +213,10 @@
         <v>5</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Tutorial/EncountersDoubleTutorial.xlsx
+++ b/Tutorial/EncountersDoubleTutorial.xlsx
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="7">
-  <si>
-    <t xml:space="preserve">Lake name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="5">
   <si>
     <t xml:space="preserve">Observer name</t>
   </si>
@@ -32,9 +29,6 @@
   </si>
   <si>
     <t xml:space="preserve">size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lake Burgan</t>
   </si>
   <si>
     <t xml:space="preserve">Aislyn</t>
@@ -148,19 +142,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="1" style="0" width="21.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1017" min="11" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1018" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="1" style="0" width="21.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1016" min="10" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1017" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -173,91 +167,70 @@
       <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>6</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="D6" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>8</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="D7" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -265,13 +238,10 @@
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>6</v>
+      <c r="B8" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -279,13 +249,10 @@
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>6</v>
+      <c r="B9" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="D9" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -293,13 +260,10 @@
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>6</v>
+      <c r="B10" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="D10" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -307,13 +271,10 @@
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>6</v>
+      <c r="B11" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="D11" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -321,13 +282,10 @@
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>6</v>
+      <c r="B12" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="D12" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -335,13 +293,10 @@
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="1" t="n">
         <v>6</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="D13" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -349,13 +304,10 @@
       <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>6</v>
+      <c r="B14" s="1" t="n">
+        <v>7</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="D14" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -363,13 +315,10 @@
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>6</v>
+      <c r="B15" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="D15" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -377,13 +326,10 @@
       <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>6</v>
+      <c r="B16" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="D16" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -391,13 +337,10 @@
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>6</v>
+      <c r="B17" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="D17" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -405,13 +348,10 @@
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>6</v>
+      <c r="B18" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="D18" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -419,13 +359,10 @@
       <c r="A19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>6</v>
+      <c r="B19" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="D19" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -433,13 +370,10 @@
       <c r="A20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>6</v>
+      <c r="B20" s="1" t="n">
+        <v>14</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="D20" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -447,13 +381,10 @@
       <c r="A21" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>6</v>
+      <c r="B21" s="1" t="n">
+        <v>13</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="D21" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -461,13 +392,10 @@
       <c r="A22" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>6</v>
+      <c r="B22" s="1" t="n">
+        <v>13</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="D22" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -475,13 +403,10 @@
       <c r="A23" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>6</v>
+      <c r="B23" s="1" t="n">
+        <v>13</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="D23" s="1" t="n">
         <v>3</v>
       </c>
     </row>
@@ -489,13 +414,10 @@
       <c r="A24" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>6</v>
+      <c r="B24" s="1" t="n">
+        <v>13</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="D24" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -503,13 +425,10 @@
       <c r="A25" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>6</v>
+      <c r="B25" s="1" t="n">
+        <v>11</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="D25" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -517,13 +436,10 @@
       <c r="A26" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>6</v>
+      <c r="B26" s="1" t="n">
+        <v>10</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="D26" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -531,13 +447,10 @@
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>6</v>
+      <c r="B27" s="1" t="n">
+        <v>10</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="D27" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -545,13 +458,10 @@
       <c r="A28" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>6</v>
+      <c r="B28" s="1" t="n">
+        <v>9</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="D28" s="1" t="n">
         <v>3</v>
       </c>
     </row>
@@ -559,13 +469,10 @@
       <c r="A29" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>6</v>
+      <c r="B29" s="1" t="n">
+        <v>9</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="D29" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -573,13 +480,10 @@
       <c r="A30" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>6</v>
+      <c r="B30" s="1" t="n">
+        <v>9</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="D30" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -587,13 +491,10 @@
       <c r="A31" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>6</v>
+      <c r="B31" s="1" t="n">
+        <v>9</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="D31" s="1" t="n">
         <v>6</v>
       </c>
     </row>
@@ -601,13 +502,10 @@
       <c r="A32" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>6</v>
+      <c r="B32" s="1" t="n">
+        <v>9</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="D32" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -615,13 +513,10 @@
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>6</v>
+      <c r="B33" s="1" t="n">
+        <v>9</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="D33" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -629,13 +524,10 @@
       <c r="A34" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>6</v>
+      <c r="B34" s="1" t="n">
+        <v>9</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="D34" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -643,13 +535,10 @@
       <c r="A35" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>6</v>
+      <c r="B35" s="1" t="n">
+        <v>9</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="D35" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -657,13 +546,10 @@
       <c r="A36" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>6</v>
+      <c r="B36" s="1" t="n">
+        <v>9</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="D36" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -671,13 +557,10 @@
       <c r="A37" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>6</v>
+      <c r="B37" s="1" t="n">
+        <v>9</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="D37" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -685,167 +568,131 @@
       <c r="A38" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>6</v>
+      <c r="B38" s="1" t="n">
+        <v>9</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="D38" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B39" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="D39" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="D40" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B41" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="D41" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B42" s="1" t="n">
+        <v>14</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="D42" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B43" s="1" t="n">
+        <v>14</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="D43" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B44" s="1" t="n">
+        <v>14</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="D44" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B45" s="1" t="n">
+        <v>14</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="D45" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B46" s="1" t="n">
+        <v>12</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="D46" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B47" s="1" t="n">
+        <v>11</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="D47" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B48" s="1" t="n">
+        <v>10</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="D48" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B49" s="1" t="n">
+        <v>10</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="D49" s="1" t="n">
         <v>1</v>
       </c>
     </row>
